--- a/helloworld/WEB-INF/efw/storage/excel/IamExcelTemplate.xlsx
+++ b/helloworld/WEB-INF/efw/storage/excel/IamExcelTemplate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16E8FEC-9103-48D5-BC3A-FD99DE433BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F2477-651E-4776-85B0-E4E2E90118FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,6 +128,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -655,6 +656,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34" customHeight="1"/>
   <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="2"/>
     <col min="13" max="13" width="8.6640625" style="4"/>
@@ -668,6 +670,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="5">
+        <v>45133</v>
+      </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>

--- a/helloworld/WEB-INF/efw/storage/excel/IamExcelTemplate.xlsx
+++ b/helloworld/WEB-INF/efw/storage/excel/IamExcelTemplate.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F2477-651E-4776-85B0-E4E2E90118FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57CADBA-3311-44DE-B41D-3D8E86C5C367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="formulaTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -652,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34" customHeight="1"/>
   <cols>
@@ -702,4 +703,85 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960CF6DA-622D-4C2A-92D4-A6744536B249}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>$B1+$C1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <f>SUM(A$1:A$5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>